--- a/docs/15. 샘플 데이터 생성 쿼리/data.xlsx
+++ b/docs/15. 샘플 데이터 생성 쿼리/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\front-end\movie\doc\15. 샘플 데이터 생성 쿼리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\movie\docs\15. 샘플 데이터 생성 쿼리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E0ABE1-6213-4616-9CB1-AA0D51175436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BA6525-831D-4036-A1D8-150370097910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="1848" windowWidth="10560" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -37,105 +37,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="373">
   <si>
     <t>mem_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>birthday</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>contact</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>gender</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-1111-1111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>서울</t>
   </si>
   <si>
     <t>서울</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>user1@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>user1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길삼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길육</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길칠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길팔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>홍길십</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-1111-1112</t>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>대전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>user2@gmail.com</t>
@@ -224,47 +224,47 @@
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>movie_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>audi_rating</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>runtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>더 배트맨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이상한 나라의 수학자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>메리 미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>블랙 라이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>문폴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cinema_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>loc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>가산디지털</t>
@@ -285,244 +285,1079 @@
     <t>노원</t>
   </si>
   <si>
+    <t>MEM1</t>
+  </si>
+  <si>
+    <t>MEM2</t>
+  </si>
+  <si>
+    <t>MEM3</t>
+  </si>
+  <si>
+    <t>MEM4</t>
+  </si>
+  <si>
+    <t>MEM5</t>
+  </si>
+  <si>
+    <t>MEM6</t>
+  </si>
+  <si>
+    <t>MEM7</t>
+  </si>
+  <si>
+    <t>MEM8</t>
+  </si>
+  <si>
+    <t>MEM9</t>
+  </si>
+  <si>
+    <t>MEM10</t>
+  </si>
+  <si>
+    <t>MOVIE1</t>
+  </si>
+  <si>
+    <t>MOVIE2</t>
+  </si>
+  <si>
+    <t>MOVIE3</t>
+  </si>
+  <si>
+    <t>MOVIE4</t>
+  </si>
+  <si>
+    <t>MOVIE5</t>
+  </si>
+  <si>
+    <t>CINEMA1</t>
+  </si>
+  <si>
+    <t>CINEMA2</t>
+  </si>
+  <si>
+    <t>CINEMA3</t>
+  </si>
+  <si>
+    <t>CINEMA4</t>
+  </si>
+  <si>
+    <t>CINEMA5</t>
+  </si>
+  <si>
+    <t>CINEMA6</t>
+  </si>
+  <si>
+    <t>CINEMA8</t>
+  </si>
+  <si>
+    <t>CINEMA9</t>
+  </si>
+  <si>
+    <t>CINEMA10</t>
+  </si>
+  <si>
+    <t>CINEMA11</t>
+  </si>
+  <si>
+    <t>CINEMA12</t>
+  </si>
+  <si>
+    <t>CINEMA13</t>
+  </si>
+  <si>
+    <t>CINEMA14</t>
+  </si>
+  <si>
+    <t>CINEMA15</t>
+  </si>
+  <si>
+    <t>CINEMA16</t>
+  </si>
+  <si>
+    <t>CINEMA17</t>
+  </si>
+  <si>
+    <t>CINEMA18</t>
+  </si>
+  <si>
+    <t>CINEMA19</t>
+  </si>
+  <si>
+    <t>CINEMA20</t>
+  </si>
+  <si>
+    <t>CINEMA21</t>
+  </si>
+  <si>
+    <t>CINEMA22</t>
+  </si>
+  <si>
+    <t>CINEMA23</t>
+  </si>
+  <si>
+    <t>CINEMA24</t>
+  </si>
+  <si>
+    <t>CINEMA25</t>
+  </si>
+  <si>
+    <t>CINEMA26</t>
+  </si>
+  <si>
+    <t>CINEMA27</t>
+  </si>
+  <si>
+    <t>CINEMA28</t>
+  </si>
+  <si>
+    <t>CINEMA29</t>
+  </si>
+  <si>
+    <t>CINEMA30</t>
+  </si>
+  <si>
+    <t>CINEMA31</t>
+  </si>
+  <si>
+    <t>CINEMA32</t>
+  </si>
+  <si>
+    <t>CINEMA33</t>
+  </si>
+  <si>
+    <t>CINEMA7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>독산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드웨이(신사)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대입구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수락산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신도림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에비뉴엘(명동)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드타워</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>은평(롯데몰)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중랑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청량리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>합정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍대입구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기/인천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명(광명사거리)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명아울렛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교아울렛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주터미널</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구라아울렛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동탄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라페스타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>별내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>병점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천(신중동역)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부평</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부평갈산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부평역사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>북수원(천천동)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>산본피트인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서수인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성낭중앙(신흥역)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>센트럴락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>송탄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원(수원역)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥장현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산고잔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안양(안양역)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안양일번가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주고읍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영종하늘도시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오산(원동)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용안기흥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인역북</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위례</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의정부민락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덕원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천아시아드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천터미널</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주엽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진접</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주운정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판교(창조경제밸리)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평촌(범계역)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평택비전(뉴코아)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남미사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>향남</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA34</t>
+  </si>
+  <si>
+    <t>CINEMA35</t>
+  </si>
+  <si>
+    <t>CINEMA36</t>
+  </si>
+  <si>
+    <t>CINEMA37</t>
+  </si>
+  <si>
+    <t>CINEMA38</t>
+  </si>
+  <si>
+    <t>CINEMA39</t>
+  </si>
+  <si>
+    <t>CINEMA40</t>
+  </si>
+  <si>
+    <t>CINEMA41</t>
+  </si>
+  <si>
+    <t>CINEMA42</t>
+  </si>
+  <si>
+    <t>CINEMA43</t>
+  </si>
+  <si>
+    <t>CINEMA44</t>
+  </si>
+  <si>
+    <t>CINEMA45</t>
+  </si>
+  <si>
+    <t>CINEMA46</t>
+  </si>
+  <si>
+    <t>CINEMA47</t>
+  </si>
+  <si>
+    <t>CINEMA48</t>
+  </si>
+  <si>
+    <t>CINEMA49</t>
+  </si>
+  <si>
+    <t>CINEMA50</t>
+  </si>
+  <si>
+    <t>CINEMA51</t>
+  </si>
+  <si>
+    <t>CINEMA52</t>
+  </si>
+  <si>
+    <t>CINEMA53</t>
+  </si>
+  <si>
+    <t>CINEMA54</t>
+  </si>
+  <si>
+    <t>CINEMA55</t>
+  </si>
+  <si>
+    <t>CINEMA56</t>
+  </si>
+  <si>
+    <t>CINEMA57</t>
+  </si>
+  <si>
+    <t>CINEMA58</t>
+  </si>
+  <si>
+    <t>CINEMA59</t>
+  </si>
+  <si>
+    <t>CINEMA60</t>
+  </si>
+  <si>
+    <t>CINEMA61</t>
+  </si>
+  <si>
+    <t>CINEMA62</t>
+  </si>
+  <si>
+    <t>CINEMA63</t>
+  </si>
+  <si>
+    <t>CINEMA64</t>
+  </si>
+  <si>
+    <t>CINEMA65</t>
+  </si>
+  <si>
+    <t>CINEMA66</t>
+  </si>
+  <si>
+    <t>CINEMA67</t>
+  </si>
+  <si>
+    <t>CINEMA68</t>
+  </si>
+  <si>
+    <t>CINEMA69</t>
+  </si>
+  <si>
+    <t>CINEMA70</t>
+  </si>
+  <si>
+    <t>CINEMA71</t>
+  </si>
+  <si>
+    <t>충청/대전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>당진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대전(백화점)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대전관저</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대전둔산(월평동)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대전센트럴</t>
-  </si>
-  <si>
-    <t>도곡</t>
-  </si>
-  <si>
-    <t>독산</t>
-  </si>
-  <si>
-    <t>브로드웨이(신사)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>서산</t>
-  </si>
-  <si>
-    <t>서울대입구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>서청주(아울렛)</t>
-  </si>
-  <si>
-    <t>수락산</t>
-  </si>
-  <si>
-    <t>수유</t>
-  </si>
-  <si>
-    <t>신도림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>아산터미널</t>
-  </si>
-  <si>
-    <t>에비뉴엘(명동)</t>
-  </si>
-  <si>
-    <t>영등포</t>
-  </si>
-  <si>
-    <t>충청/대전</t>
-  </si>
-  <si>
-    <t>용산</t>
-  </si>
-  <si>
-    <t>월드타워</t>
-  </si>
-  <si>
-    <t>은평(롯데몰)</t>
-  </si>
-  <si>
-    <t>중랑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>천안불당</t>
-  </si>
-  <si>
-    <t>청량리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>청주용암</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>충주(모다아울렛)</t>
-  </si>
-  <si>
-    <t>합청</t>
-  </si>
-  <si>
-    <t>홍대입구</t>
-  </si>
-  <si>
-    <t>MEM1</t>
-  </si>
-  <si>
-    <t>MEM2</t>
-  </si>
-  <si>
-    <t>MEM3</t>
-  </si>
-  <si>
-    <t>MEM4</t>
-  </si>
-  <si>
-    <t>MEM5</t>
-  </si>
-  <si>
-    <t>MEM6</t>
-  </si>
-  <si>
-    <t>MEM7</t>
-  </si>
-  <si>
-    <t>MEM8</t>
-  </si>
-  <si>
-    <t>MEM9</t>
-  </si>
-  <si>
-    <t>MEM10</t>
-  </si>
-  <si>
-    <t>MOVIE1</t>
-  </si>
-  <si>
-    <t>MOVIE2</t>
-  </si>
-  <si>
-    <t>MOVIE3</t>
-  </si>
-  <si>
-    <t>MOVIE4</t>
-  </si>
-  <si>
-    <t>MOVIE5</t>
-  </si>
-  <si>
-    <t>CINEMA1</t>
-  </si>
-  <si>
-    <t>CINEMA2</t>
-  </si>
-  <si>
-    <t>CINEMA3</t>
-  </si>
-  <si>
-    <t>CINEMA4</t>
-  </si>
-  <si>
-    <t>CINEMA5</t>
-  </si>
-  <si>
-    <t>CINEMA6</t>
-  </si>
-  <si>
-    <t>CINEMA7</t>
-  </si>
-  <si>
-    <t>CINEMA8</t>
-  </si>
-  <si>
-    <t>CINEMA9</t>
-  </si>
-  <si>
-    <t>CINEMA10</t>
-  </si>
-  <si>
-    <t>CINEMA11</t>
-  </si>
-  <si>
-    <t>CINEMA12</t>
-  </si>
-  <si>
-    <t>CINEMA13</t>
-  </si>
-  <si>
-    <t>CINEMA14</t>
-  </si>
-  <si>
-    <t>CINEMA15</t>
-  </si>
-  <si>
-    <t>CINEMA16</t>
-  </si>
-  <si>
-    <t>CINEMA17</t>
-  </si>
-  <si>
-    <t>CINEMA18</t>
-  </si>
-  <si>
-    <t>CINEMA19</t>
-  </si>
-  <si>
-    <t>CINEMA20</t>
-  </si>
-  <si>
-    <t>CINEMA21</t>
-  </si>
-  <si>
-    <t>CINEMA22</t>
-  </si>
-  <si>
-    <t>CINEMA23</t>
-  </si>
-  <si>
-    <t>CINEMA24</t>
-  </si>
-  <si>
-    <t>CINEMA25</t>
-  </si>
-  <si>
-    <t>CINEMA26</t>
-  </si>
-  <si>
-    <t>CINEMA27</t>
-  </si>
-  <si>
-    <t>CINEMA28</t>
-  </si>
-  <si>
-    <t>CINEMA29</t>
-  </si>
-  <si>
-    <t>CINEMA30</t>
-  </si>
-  <si>
-    <t>CINEMA31</t>
-  </si>
-  <si>
-    <t>CINEMA32</t>
-  </si>
-  <si>
-    <t>CINEMA33</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA72</t>
+  </si>
+  <si>
+    <t>CINEMA73</t>
+  </si>
+  <si>
+    <t>CINEMA74</t>
+  </si>
+  <si>
+    <t>CINEMA75</t>
+  </si>
+  <si>
+    <t>CINEMA76</t>
+  </si>
+  <si>
+    <t>CINEMA77</t>
+  </si>
+  <si>
+    <t>CINEMA78</t>
+  </si>
+  <si>
+    <t>CINEMA79</t>
+  </si>
+  <si>
+    <t>CINEMA80</t>
+  </si>
+  <si>
+    <t>CINEMA81</t>
+  </si>
+  <si>
+    <t>CINEMA82</t>
+  </si>
+  <si>
+    <t>전라/광주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주(백화점)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>군산나운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>군산몰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수완(아울렛)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>익산모현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주(백화점)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주송천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주평화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충장로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA83</t>
+  </si>
+  <si>
+    <t>CINEMA84</t>
+  </si>
+  <si>
+    <t>CINEMA85</t>
+  </si>
+  <si>
+    <t>CINEMA86</t>
+  </si>
+  <si>
+    <t>CINEMA87</t>
+  </si>
+  <si>
+    <t>CINEMA88</t>
+  </si>
+  <si>
+    <t>CINEMA89</t>
+  </si>
+  <si>
+    <t>CINEMA90</t>
+  </si>
+  <si>
+    <t>CINEMA91</t>
+  </si>
+  <si>
+    <t>CINEMA92</t>
+  </si>
+  <si>
+    <t>경북/대구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주황성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미공단</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구광장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구율하</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구현풍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동성로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄구미센트럴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄만경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄안동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄칠곡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA93</t>
+  </si>
+  <si>
+    <t>CINEMA94</t>
+  </si>
+  <si>
+    <t>CINEMA95</t>
+  </si>
+  <si>
+    <t>CINEMA96</t>
+  </si>
+  <si>
+    <t>CINEMA97</t>
+  </si>
+  <si>
+    <t>CINEMA98</t>
+  </si>
+  <si>
+    <t>CINEMA99</t>
+  </si>
+  <si>
+    <t>CINEMA100</t>
+  </si>
+  <si>
+    <t>CINEMA101</t>
+  </si>
+  <si>
+    <t>CINEMA102</t>
+  </si>
+  <si>
+    <t>CINEMA103</t>
+  </si>
+  <si>
+    <t>CINEMA104</t>
+  </si>
+  <si>
+    <t>CINEMA105</t>
+  </si>
+  <si>
+    <t>CINEMA106</t>
+  </si>
+  <si>
+    <t>CINEMA107</t>
+  </si>
+  <si>
+    <t>CINEMA108</t>
+  </si>
+  <si>
+    <t>CINEMA109</t>
+  </si>
+  <si>
+    <t>CINEMA110</t>
+  </si>
+  <si>
+    <t>경남/부산/울산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거창</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광복</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김해부원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김해아울렛(장유)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부산아울렛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이브 오시리아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마산(합성동)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산명지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산본점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서면(전포동)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>센텀시티</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>야산물금</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠비씨네(진주)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오투(부산대)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산(백화점)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산성남</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주혁신(롯데몰)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄경남대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄진주(중안)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄해운대(장산역)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA111</t>
+  </si>
+  <si>
+    <t>CINEMA112</t>
+  </si>
+  <si>
+    <t>CINEMA113</t>
+  </si>
+  <si>
+    <t>CINEMA114</t>
+  </si>
+  <si>
+    <t>CINEMA115</t>
+  </si>
+  <si>
+    <t>CINEMA116</t>
+  </si>
+  <si>
+    <t>CINEMA117</t>
+  </si>
+  <si>
+    <t>CINEMA118</t>
+  </si>
+  <si>
+    <t>CINEMA119</t>
+  </si>
+  <si>
+    <t>CINEMA120</t>
+  </si>
+  <si>
+    <t>CINEMA121</t>
+  </si>
+  <si>
+    <t>CINEMA122</t>
+  </si>
+  <si>
+    <t>CINEMA123</t>
+  </si>
+  <si>
+    <t>CINEMA124</t>
+  </si>
+  <si>
+    <t>CINEMA125</t>
+  </si>
+  <si>
+    <t>CINEMA126</t>
+  </si>
+  <si>
+    <t>CINEMA127</t>
+  </si>
+  <si>
+    <t>CINEMA128</t>
+  </si>
+  <si>
+    <t>CINEMA129</t>
+  </si>
+  <si>
+    <t>CINEMA130</t>
+  </si>
+  <si>
+    <t>CINEMA131</t>
+  </si>
+  <si>
+    <t>CINEMA132</t>
+  </si>
+  <si>
+    <t>CINEMA133</t>
+  </si>
+  <si>
+    <t>CINEMA134</t>
+  </si>
+  <si>
+    <t>CINEMA135</t>
+  </si>
+  <si>
+    <t>CINEMA136</t>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원주무실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA137</t>
+  </si>
+  <si>
+    <t>CINEMA138</t>
+  </si>
+  <si>
+    <t>CINEMA139</t>
+  </si>
+  <si>
+    <t>CINEMA140</t>
+  </si>
+  <si>
+    <t>서귀포</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주삼화지구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주아라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA141</t>
+  </si>
+  <si>
+    <t>CINEMA142</t>
+  </si>
+  <si>
+    <t>CINEMA143</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,19 +1412,25 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,7 +1719,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -918,7 +1759,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -947,7 +1788,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -976,7 +1817,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1005,7 +1846,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1034,7 +1875,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1063,7 +1904,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1092,7 +1933,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1121,7 +1962,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1150,7 +1991,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1179,7 +2020,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1207,7 +2048,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{D25215FB-1B8E-46A0-942D-33C04E86180A}"/>
     <hyperlink ref="F3:F11" r:id="rId2" display="user1@gmail.com" xr:uid="{0E2CE104-B3DB-4F84-8140-4CCEFBF0D10C}"/>
@@ -1243,7 +2084,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -1258,7 +2099,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -1273,7 +2114,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -1288,7 +2129,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -1303,7 +2144,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -1316,17 +2157,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39A1819-8ED6-4EB8-8415-B747BE36DC51}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A34"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1349,7 +2190,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>64</v>
@@ -1360,7 +2201,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>65</v>
@@ -1371,7 +2212,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>66</v>
@@ -1382,7 +2223,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>67</v>
@@ -1393,7 +2234,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>68</v>
@@ -1404,7 +2245,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>69</v>
@@ -1414,304 +2255,1514 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
+      <c r="C9" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
+      <c r="C10" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
+      <c r="C11" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
+      <c r="C12" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
+      <c r="C13" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
+      <c r="C14" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
+      <c r="C15" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
+      <c r="C16" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
+      <c r="C17" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
+      <c r="C18" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
+      <c r="C19" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
+      <c r="C20" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
+      <c r="C21" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
+      <c r="C22" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
+      <c r="C23" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>87</v>
+      <c r="C24" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>87</v>
+      <c r="A25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>87</v>
+      <c r="C26" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>87</v>
+      <c r="C27" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>87</v>
+      <c r="A28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>87</v>
+      <c r="A29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>87</v>
+      <c r="A30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>87</v>
+      <c r="A31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>87</v>
+      <c r="A32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>87</v>
+      <c r="A33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>87</v>
+      <c r="A34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>